--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="23" r:id="rId1"/>
-    <sheet name="meth_method" sheetId="2" r:id="rId2"/>
-    <sheet name="add_dep" sheetId="7" r:id="rId3"/>
-    <sheet name="del_dep" sheetId="9" r:id="rId4"/>
-    <sheet name="add_res" sheetId="8" r:id="rId5"/>
+    <sheet name="add_dep" sheetId="7" r:id="rId2"/>
+    <sheet name="add_res" sheetId="8" r:id="rId3"/>
+    <sheet name="meth_method" sheetId="2" r:id="rId4"/>
+    <sheet name="del_dep" sheetId="9" r:id="rId5"/>
     <sheet name="res_account" sheetId="17" r:id="rId6"/>
     <sheet name="add_user_group" sheetId="10" r:id="rId7"/>
     <sheet name="del_user_group" sheetId="11" r:id="rId8"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="370">
   <si>
     <t>登录方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1525,10 +1525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安全保密管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加sysAdmin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1538,6 +1534,18 @@
   </si>
   <si>
     <t>添加sysAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrapp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2257,7 +2265,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>355</v>
@@ -2286,7 +2294,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>358</v>
@@ -2307,7 +2315,7 @@
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -2315,7 +2323,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>361</v>
@@ -2366,42 +2374,42 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2414,19 +2422,19 @@
     <row r="8" spans="1:13">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2434,22 +2442,22 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>242</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2457,43 +2465,43 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2506,40 +2514,40 @@
     <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2547,47 +2555,47 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5"/>
+        <v>251</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>252</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2598,17 +2606,17 @@
     <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2621,40 +2629,40 @@
     <row r="17" spans="1:13">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
+        <v>254</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="15"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2667,40 +2675,40 @@
     <row r="19" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2713,17 +2721,17 @@
     <row r="21" spans="1:13">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2736,17 +2744,17 @@
     <row r="22" spans="1:13">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2759,17 +2767,17 @@
     <row r="23" spans="1:13">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2782,17 +2790,17 @@
     <row r="24" spans="1:13">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2805,17 +2813,17 @@
     <row r="25" spans="1:13">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
+        <v>265</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2828,17 +2836,17 @@
     <row r="26" spans="1:13">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
+        <v>266</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2851,17 +2859,17 @@
     <row r="27" spans="1:13">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2874,17 +2882,17 @@
     <row r="28" spans="1:13">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
+        <v>268</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2895,65 +2903,65 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="E29" s="28">
-        <v>1</v>
-      </c>
-      <c r="F29" s="28">
-        <v>1</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="E30" s="30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="E30" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="29"/>
       <c r="B31" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1</v>
-      </c>
-      <c r="F31" s="30">
-        <v>1</v>
+        <v>286</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2966,21 +2974,19 @@
     <row r="32" spans="1:13">
       <c r="A32" s="29"/>
       <c r="B32" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E32" s="30">
-        <v>1</v>
-      </c>
-      <c r="F32" s="30">
-        <v>1</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>289</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
@@ -2991,19 +2997,21 @@
     <row r="33" spans="1:13">
       <c r="A33" s="29"/>
       <c r="B33" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E33" s="30">
-        <v>1</v>
-      </c>
-      <c r="F33" s="30">
-        <v>1</v>
-      </c>
-      <c r="G33" s="29"/>
+        <v>288</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>289</v>
+      </c>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -3014,54 +3022,46 @@
     <row r="34" spans="1:13">
       <c r="A34" s="29"/>
       <c r="B34" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" s="29">
-        <v>8</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C34" s="29"/>
       <c r="D34" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="E34" s="30">
-        <v>1</v>
-      </c>
-      <c r="F34" s="30">
-        <v>1</v>
+        <v>290</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G34" s="29"/>
-      <c r="H34" s="29">
-        <v>8</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>293</v>
-      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
-      <c r="L34" s="32" t="s">
-        <v>294</v>
-      </c>
+      <c r="L34" s="29"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" s="29">
         <v>8</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="E35" s="30">
-        <v>1</v>
-      </c>
-      <c r="F35" s="30">
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>293</v>
@@ -3069,97 +3069,105 @@
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="32" t="s">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="29"/>
       <c r="B36" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="C36" s="29"/>
+        <v>292</v>
+      </c>
+      <c r="C36" s="29">
+        <v>8</v>
+      </c>
       <c r="D36" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36" s="30">
-        <v>1</v>
-      </c>
-      <c r="F36" s="30">
-        <v>1</v>
+        <v>292</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="H36" s="29">
+        <v>10</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>293</v>
+      </c>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="L36" s="32" t="s">
+        <v>122</v>
+      </c>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="29"/>
       <c r="B37" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="E37" s="30">
-        <v>1</v>
-      </c>
-      <c r="F37" s="30">
-        <v>1</v>
+        <v>306</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
-      <c r="K37" s="29" t="s">
-        <v>58</v>
-      </c>
+      <c r="K37" s="29"/>
       <c r="L37" s="29"/>
-      <c r="M37" s="32" t="s">
-        <v>308</v>
-      </c>
+      <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="29"/>
       <c r="B38" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="E38" s="30">
-        <v>1</v>
-      </c>
-      <c r="F38" s="30">
-        <v>1</v>
+        <v>307</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
+      <c r="K38" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
+      <c r="M38" s="32" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="E39" s="30">
-        <v>1</v>
-      </c>
-      <c r="F39" s="30">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
@@ -3172,17 +3180,17 @@
     <row r="40" spans="1:13">
       <c r="A40" s="29"/>
       <c r="B40" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="E40" s="30">
-        <v>1</v>
-      </c>
-      <c r="F40" s="30">
-        <v>1</v>
+        <v>310</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -3194,18 +3202,18 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="29"/>
-      <c r="B41" s="29" t="s">
-        <v>312</v>
+      <c r="B41" s="30" t="s">
+        <v>311</v>
       </c>
       <c r="C41" s="29"/>
-      <c r="D41" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="E41" s="29">
-        <v>1</v>
-      </c>
-      <c r="F41" s="29">
-        <v>1</v>
+      <c r="D41" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
@@ -3218,154 +3226,208 @@
     <row r="42" spans="1:13">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="E42" s="29">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29">
-        <v>1</v>
+        <v>312</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="29" t="s">
-        <v>316</v>
-      </c>
+      <c r="K42" s="29"/>
       <c r="L42" s="29"/>
-      <c r="M42" s="32" t="s">
-        <v>317</v>
-      </c>
+      <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="29"/>
       <c r="B43" s="29" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="E43" s="29">
-        <v>1</v>
-      </c>
-      <c r="F43" s="29">
-        <v>1</v>
+        <v>312</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
-      <c r="K43" s="29" t="s">
-        <v>349</v>
-      </c>
+      <c r="K43" s="29"/>
       <c r="L43" s="29"/>
-      <c r="M43" s="32" t="s">
-        <v>317</v>
-      </c>
+      <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="29"/>
       <c r="B44" s="29" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="E44" s="29">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
+      <c r="K44" s="29" t="s">
+        <v>316</v>
+      </c>
       <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
+      <c r="M44" s="32" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="29"/>
       <c r="B45" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C45" s="29">
-        <v>8</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C45" s="29"/>
       <c r="D45" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="E45" s="29">
-        <v>1</v>
-      </c>
-      <c r="F45" s="29">
-        <v>1</v>
+        <v>323</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G45" s="29"/>
-      <c r="H45" s="29">
-        <v>8</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>331</v>
-      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="M45" s="29"/>
+      <c r="K45" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="L45" s="29"/>
+      <c r="M45" s="32" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="29"/>
       <c r="B46" s="29" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="E46" s="29">
-        <v>1</v>
-      </c>
-      <c r="F46" s="29">
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>368</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
-      <c r="K46" s="29" t="s">
-        <v>316</v>
-      </c>
+      <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="29">
+        <v>8</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29">
+        <v>8</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="M47" s="29"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L34" r:id="rId1"/>
-    <hyperlink ref="L35" r:id="rId2"/>
-    <hyperlink ref="M37" r:id="rId3"/>
-    <hyperlink ref="M42" r:id="rId4"/>
-    <hyperlink ref="M43" r:id="rId5"/>
-    <hyperlink ref="L45" r:id="rId6"/>
+    <hyperlink ref="L35" r:id="rId1"/>
+    <hyperlink ref="L36" r:id="rId2"/>
+    <hyperlink ref="M38" r:id="rId3"/>
+    <hyperlink ref="M44" r:id="rId4"/>
+    <hyperlink ref="M45" r:id="rId5"/>
+    <hyperlink ref="L47" r:id="rId6"/>
     <hyperlink ref="E2" r:id="rId7"/>
     <hyperlink ref="F2" r:id="rId8"/>
     <hyperlink ref="E3" r:id="rId9"/>
     <hyperlink ref="F3" r:id="rId10"/>
     <hyperlink ref="E4" r:id="rId11"/>
     <hyperlink ref="F4" r:id="rId12"/>
+    <hyperlink ref="E6" r:id="rId13"/>
+    <hyperlink ref="F6" r:id="rId14"/>
+    <hyperlink ref="F7:F29" r:id="rId15" display="qawsed@123"/>
+    <hyperlink ref="E7:E29" r:id="rId16" display="qawsed@123"/>
+    <hyperlink ref="E30:E48" r:id="rId17" display="qawsed@123"/>
+    <hyperlink ref="F30:F48" r:id="rId18" display="qawsed@123"/>
+    <hyperlink ref="E42" r:id="rId19"/>
+    <hyperlink ref="F42" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -4419,57 +4481,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>12345678</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4566,88 +4577,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25">
-      <c r="A5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25">
-      <c r="A6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25">
-      <c r="A7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5368,6 +5303,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
@@ -5763,7 +5825,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -2209,7 +2209,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>368</v>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="372">
   <si>
     <t>登录方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>192.168.23.128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1041,10 +1037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cyye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cyyb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,14 +1054,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cyyf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cyyh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1546,6 +1530,30 @@
   </si>
   <si>
     <t>gyrapp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加或者添加本角色成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrrz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2206,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2222,12 +2230,13 @@
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="10" max="11" width="14.25" customWidth="1"/>
     <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2242,123 +2251,137 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>212</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C3" s="29">
         <v>2</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" s="29">
         <v>2</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -2372,21 +2395,24 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -2395,21 +2421,24 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2418,21 +2447,24 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2441,21 +2473,24 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -2464,228 +2499,276 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>243</v>
+      <c r="N9" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>365</v>
       </c>
       <c r="E10" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F10" s="32" t="s">
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>250</v>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30" t="s">
+        <v>282</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>251</v>
+        <v>364</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
+        <v>283</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>364</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30" t="s">
+        <v>284</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>253</v>
+        <v>364</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>254</v>
+        <v>364</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="29">
+        <v>8</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>287</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>255</v>
+        <v>364</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29">
+        <v>8</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="29">
+        <v>8</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>288</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13">
+        <v>371</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29">
+        <v>10</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2694,44 +2777,50 @@
       <c r="K19" s="3"/>
       <c r="L19" s="15"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>257</v>
+      <c r="N19" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13">
+        <v>364</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2740,21 +2829,24 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2762,45 +2854,51 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="15"/>
+      <c r="N22" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2809,21 +2907,24 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2832,67 +2933,76 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2901,21 +3011,24 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2924,273 +3037,288 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28" t="s">
-        <v>285</v>
+      <c r="N29" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E30" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F30" s="32" t="s">
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="E31" s="32" t="s">
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F31" s="32" t="s">
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="E32" s="32" t="s">
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F32" s="32" t="s">
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E33" s="32" t="s">
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F33" s="32" t="s">
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="C35" s="29">
-        <v>8</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29">
-        <v>8</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="M35" s="29"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="C36" s="29">
-        <v>8</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29">
-        <v>10</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M36" s="29"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-    </row>
-    <row r="38" spans="1:13">
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="29"/>
       <c r="B38" s="30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
-      <c r="K38" s="29" t="s">
-        <v>58</v>
-      </c>
+      <c r="K38" s="29"/>
       <c r="L38" s="29"/>
-      <c r="M38" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="M38" s="29"/>
+      <c r="N38" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
+      <c r="K39" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="29"/>
       <c r="B40" s="30" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="30" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -3199,21 +3327,24 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="29"/>
       <c r="B41" s="30" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="30" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
@@ -3222,21 +3353,24 @@
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="29"/>
-      <c r="B42" s="29" t="s">
-        <v>369</v>
+      <c r="B42" s="30" t="s">
+        <v>307</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="29" t="s">
-        <v>369</v>
+      <c r="D42" s="30" t="s">
+        <v>307</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
@@ -3245,172 +3379,167 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="29"/>
       <c r="B43" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+      <c r="K43" s="29" t="s">
+        <v>312</v>
+      </c>
       <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="M43" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="29"/>
       <c r="B44" s="29" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>313</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="29"/>
       <c r="B45" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
-      <c r="K45" s="29" t="s">
-        <v>349</v>
-      </c>
+      <c r="K45" s="29"/>
       <c r="L45" s="29"/>
-      <c r="M45" s="32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="M45" s="29"/>
+      <c r="N45" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="29"/>
       <c r="B46" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="C46" s="29"/>
+        <v>326</v>
+      </c>
+      <c r="C46" s="29">
+        <v>8</v>
+      </c>
       <c r="D46" s="29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
+      <c r="H46" s="29">
+        <v>8</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>327</v>
+      </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
+      <c r="L46" s="32" t="s">
+        <v>328</v>
+      </c>
       <c r="M46" s="29"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="29"/>
       <c r="B47" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C47" s="29">
-        <v>8</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C47" s="29"/>
       <c r="D47" s="29" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E47" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F47" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29">
-        <v>8</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="M47" s="29"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L35" r:id="rId1"/>
-    <hyperlink ref="L36" r:id="rId2"/>
-    <hyperlink ref="M38" r:id="rId3"/>
-    <hyperlink ref="M44" r:id="rId4"/>
-    <hyperlink ref="M45" r:id="rId5"/>
-    <hyperlink ref="L47" r:id="rId6"/>
+    <hyperlink ref="L17" r:id="rId1"/>
+    <hyperlink ref="L18" r:id="rId2"/>
+    <hyperlink ref="M39" r:id="rId3"/>
+    <hyperlink ref="M43" r:id="rId4"/>
+    <hyperlink ref="M44" r:id="rId5"/>
+    <hyperlink ref="L46" r:id="rId6"/>
     <hyperlink ref="E2" r:id="rId7"/>
     <hyperlink ref="F2" r:id="rId8"/>
     <hyperlink ref="E3" r:id="rId9"/>
@@ -3419,15 +3548,17 @@
     <hyperlink ref="F4" r:id="rId12"/>
     <hyperlink ref="E6" r:id="rId13"/>
     <hyperlink ref="F6" r:id="rId14"/>
-    <hyperlink ref="F7:F29" r:id="rId15" display="qawsed@123"/>
-    <hyperlink ref="E7:E29" r:id="rId16" display="qawsed@123"/>
-    <hyperlink ref="E30:E48" r:id="rId17" display="qawsed@123"/>
-    <hyperlink ref="F30:F48" r:id="rId18" display="qawsed@123"/>
-    <hyperlink ref="E42" r:id="rId19"/>
-    <hyperlink ref="F42" r:id="rId20"/>
+    <hyperlink ref="F7:F37" r:id="rId15" display="qawsed@123"/>
+    <hyperlink ref="E7:E37" r:id="rId16" display="qawsed@123"/>
+    <hyperlink ref="E20:E47" r:id="rId17" display="qawsed@123"/>
+    <hyperlink ref="F20:F47" r:id="rId18" display="qawsed@123"/>
+    <hyperlink ref="E10" r:id="rId19"/>
+    <hyperlink ref="F10" r:id="rId20"/>
+    <hyperlink ref="F16" r:id="rId21"/>
+    <hyperlink ref="F18" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -3448,13 +3579,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -3462,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
@@ -3473,10 +3604,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3502,24 +3633,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3547,62 +3678,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C2" s="3">
         <v>3389</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C3" s="3">
         <v>3389</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3630,43 +3761,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
@@ -3682,19 +3813,19 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -3704,19 +3835,19 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3726,15 +3857,15 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="14"/>
@@ -3746,11 +3877,11 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="14" t="s">
@@ -3766,11 +3897,11 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="14" t="s">
@@ -3786,15 +3917,15 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3806,11 +3937,11 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
@@ -3826,19 +3957,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="31" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="29" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -3870,27 +4001,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -3898,13 +4029,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -3912,13 +4043,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -3926,13 +4057,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -3962,42 +4093,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4024,33 +4155,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4082,104 +4213,104 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>167</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>168</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -4188,26 +4319,26 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -4216,41 +4347,41 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -4260,20 +4391,20 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U4" s="23"/>
     </row>
@@ -4307,46 +4438,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4378,42 +4509,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27">
       <c r="A2" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4437,15 +4568,15 @@
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27">
       <c r="A3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -4469,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4496,79 +4627,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4609,76 +4740,76 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -4687,16 +4818,16 @@
     </row>
     <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -4705,7 +4836,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -4713,34 +4844,34 @@
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4749,32 +4880,32 @@
     </row>
     <row r="5" spans="1:14" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -4783,34 +4914,34 @@
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -4819,16 +4950,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4843,19 +4974,19 @@
     </row>
     <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4869,16 +5000,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4891,24 +5022,24 @@
         <v>2</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4923,22 +5054,22 @@
     </row>
     <row r="11" spans="1:14" ht="14.25" hidden="1">
       <c r="A11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>210</v>
-      </c>
       <c r="F11" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="26">
         <v>123</v>
@@ -4959,32 +5090,32 @@
     </row>
     <row r="12" spans="1:14" ht="14.25">
       <c r="A12" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -4993,32 +5124,32 @@
     </row>
     <row r="13" spans="1:14" ht="14.25">
       <c r="A13" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -5027,32 +5158,32 @@
     </row>
     <row r="14" spans="1:14" ht="14.25">
       <c r="A14" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
@@ -5061,16 +5192,16 @@
     </row>
     <row r="15" spans="1:14" ht="14.25">
       <c r="A15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -5085,32 +5216,32 @@
     </row>
     <row r="16" spans="1:14" ht="14.25">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -5119,16 +5250,16 @@
     </row>
     <row r="17" spans="1:14" ht="14.25">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -5137,7 +5268,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -5145,16 +5276,16 @@
     </row>
     <row r="18" spans="1:14" ht="14.25">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -5169,16 +5300,16 @@
     </row>
     <row r="19" spans="1:14" ht="14.25">
       <c r="A19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5193,16 +5324,16 @@
     </row>
     <row r="20" spans="1:14" ht="14.25">
       <c r="A20" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -5217,16 +5348,16 @@
     </row>
     <row r="21" spans="1:14" ht="14.25">
       <c r="A21" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
@@ -5241,16 +5372,16 @@
     </row>
     <row r="22" spans="1:14" ht="14.25">
       <c r="A22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
@@ -5265,26 +5396,26 @@
     </row>
     <row r="23" spans="1:14" ht="14.25">
       <c r="A23" s="34" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>344</v>
-      </c>
       <c r="D23" s="29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -5335,10 +5466,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5370,15 +5501,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7">
         <v>4</v>
@@ -5386,7 +5517,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
@@ -5394,7 +5525,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7">
         <v>4</v>
@@ -5402,7 +5533,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -5410,7 +5541,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -5418,7 +5549,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="7">
         <v>4</v>
@@ -5449,132 +5580,132 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3">
         <v>123456</v>
@@ -5585,115 +5716,115 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="25">
         <v>123</v>
@@ -5704,104 +5835,104 @@
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="33" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5839,22 +5970,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -5862,19 +5993,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -5882,19 +6013,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -5902,19 +6033,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5941,13 +6072,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -5955,10 +6086,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
@@ -5966,10 +6097,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
@@ -5977,10 +6108,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6009,22 +6140,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -6032,19 +6163,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -6052,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="377">
   <si>
     <t>登录方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +314,6 @@
   </si>
   <si>
     <t>部门类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1054,10 +1050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cyyh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cyyi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,10 +1147,6 @@
   </si>
   <si>
     <t>流程测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1373,34 +1361,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>windows(172.16.10.20)-&gt;Windows2008 域控服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加windows授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gyrad2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hH@1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows(172.16.10.20)-&gt;Windows2008 域控服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加windows授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.20.234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1554,6 +1530,50 @@
   </si>
   <si>
     <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2214,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2263,124 +2283,124 @@
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C3" s="29">
         <v>2</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C4" s="29">
         <v>2</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2396,23 +2416,23 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -2422,23 +2442,23 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2448,23 +2468,23 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2474,23 +2494,23 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -2500,23 +2520,23 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="29" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -2526,23 +2546,23 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="29"/>
       <c r="B11" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -2552,23 +2572,23 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2584,17 +2604,17 @@
     <row r="13" spans="1:14">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -2610,17 +2630,17 @@
     <row r="14" spans="1:14">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -2636,20 +2656,20 @@
     <row r="15" spans="1:14">
       <c r="A15" s="29"/>
       <c r="B15" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -2664,17 +2684,17 @@
     <row r="16" spans="1:14">
       <c r="A16" s="29"/>
       <c r="B16" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -2690,31 +2710,31 @@
     <row r="17" spans="1:14">
       <c r="A17" s="29"/>
       <c r="B17" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C17" s="29">
         <v>8</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29">
         <v>8</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="3">
@@ -2724,31 +2744,31 @@
     <row r="18" spans="1:14">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C18" s="29">
         <v>8</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29">
         <v>10</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" s="29"/>
       <c r="N18" s="3">
@@ -2765,10 +2785,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2778,23 +2798,23 @@
       <c r="L19" s="15"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="28"/>
       <c r="B20" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -2808,227 +2828,231 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>246</v>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30" t="s">
+        <v>299</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>247</v>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
+        <v>300</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="15"/>
+        <v>358</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="32" t="s">
+        <v>301</v>
+      </c>
       <c r="N22" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>248</v>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30" t="s">
+        <v>302</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>249</v>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
+        <v>303</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>250</v>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30" t="s">
+        <v>304</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
       <c r="N25" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3" t="s">
-        <v>368</v>
+      <c r="N27" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>368</v>
+      <c r="N28" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3036,51 +3060,51 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
-        <v>368</v>
+      <c r="M29" s="15"/>
+      <c r="N29" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3" t="s">
-        <v>368</v>
+      <c r="N30" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -3089,24 +3113,24 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
-        <v>368</v>
+      <c r="N31" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3115,76 +3139,76 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
-        <v>368</v>
+      <c r="N32" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3" t="s">
-        <v>368</v>
+      <c r="N33" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="15"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3" t="s">
-        <v>368</v>
+      <c r="N34" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3193,24 +3217,24 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3" t="s">
-        <v>368</v>
+      <c r="N35" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3219,24 +3243,24 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3" t="s">
-        <v>368</v>
+      <c r="N36" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3245,80 +3269,76 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3" t="s">
-        <v>368</v>
+      <c r="N37" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30" t="s">
-        <v>302</v>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30" t="s">
-        <v>303</v>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="29"/>
-      <c r="B40" s="30" t="s">
-        <v>305</v>
+      <c r="B40" s="29" t="s">
+        <v>371</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="30" t="s">
-        <v>305</v>
+      <c r="D40" s="29" t="s">
+        <v>371</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -3327,208 +3347,276 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="3" t="s">
-        <v>368</v>
+      <c r="N40" s="29" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30" t="s">
-        <v>306</v>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30" t="s">
-        <v>307</v>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>311</v>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="L43" s="29"/>
-      <c r="M43" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29" t="s">
-        <v>319</v>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="L44" s="29"/>
-      <c r="M44" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29" t="s">
-        <v>321</v>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="29">
-        <v>8</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>326</v>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29">
-        <v>8</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29" t="s">
-        <v>336</v>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="L48" s="29"/>
+      <c r="M48" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="L49" s="29"/>
+      <c r="M49" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3536,29 +3624,36 @@
   <hyperlinks>
     <hyperlink ref="L17" r:id="rId1"/>
     <hyperlink ref="L18" r:id="rId2"/>
-    <hyperlink ref="M39" r:id="rId3"/>
-    <hyperlink ref="M43" r:id="rId4"/>
-    <hyperlink ref="M44" r:id="rId5"/>
-    <hyperlink ref="L46" r:id="rId6"/>
-    <hyperlink ref="E2" r:id="rId7"/>
-    <hyperlink ref="F2" r:id="rId8"/>
-    <hyperlink ref="E3" r:id="rId9"/>
-    <hyperlink ref="F3" r:id="rId10"/>
-    <hyperlink ref="E4" r:id="rId11"/>
-    <hyperlink ref="F4" r:id="rId12"/>
-    <hyperlink ref="E6" r:id="rId13"/>
-    <hyperlink ref="F6" r:id="rId14"/>
-    <hyperlink ref="F7:F37" r:id="rId15" display="qawsed@123"/>
-    <hyperlink ref="E7:E37" r:id="rId16" display="qawsed@123"/>
-    <hyperlink ref="E20:E47" r:id="rId17" display="qawsed@123"/>
-    <hyperlink ref="F20:F47" r:id="rId18" display="qawsed@123"/>
-    <hyperlink ref="E10" r:id="rId19"/>
-    <hyperlink ref="F10" r:id="rId20"/>
-    <hyperlink ref="F16" r:id="rId21"/>
-    <hyperlink ref="F18" r:id="rId22"/>
+    <hyperlink ref="M22" r:id="rId3"/>
+    <hyperlink ref="M48" r:id="rId4"/>
+    <hyperlink ref="M49" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="F2" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="F3" r:id="rId9"/>
+    <hyperlink ref="E4" r:id="rId10"/>
+    <hyperlink ref="F4" r:id="rId11"/>
+    <hyperlink ref="E6" r:id="rId12"/>
+    <hyperlink ref="F6" r:id="rId13"/>
+    <hyperlink ref="F7:F45" r:id="rId14" display="qawsed@123"/>
+    <hyperlink ref="E7:E45" r:id="rId15" display="qawsed@123"/>
+    <hyperlink ref="E20:E50" r:id="rId16" display="qawsed@123"/>
+    <hyperlink ref="F20:F50" r:id="rId17" display="qawsed@123"/>
+    <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="F10" r:id="rId19"/>
+    <hyperlink ref="F16" r:id="rId20"/>
+    <hyperlink ref="F18" r:id="rId21"/>
+    <hyperlink ref="F27:F28" r:id="rId22" display="qawsed@123"/>
+    <hyperlink ref="E27:E28" r:id="rId23" display="qawsed@123"/>
+    <hyperlink ref="E40" r:id="rId24"/>
+    <hyperlink ref="F40" r:id="rId25"/>
+    <hyperlink ref="F46" r:id="rId26"/>
+    <hyperlink ref="E46" r:id="rId27"/>
+    <hyperlink ref="E47" r:id="rId28"/>
+    <hyperlink ref="F47" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -3607,7 +3702,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3678,30 +3773,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C2" s="3">
         <v>3389</v>
@@ -3721,7 +3816,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C3" s="3">
         <v>3389</v>
@@ -3747,7 +3842,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3767,25 +3862,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>70</v>
@@ -3793,15 +3888,15 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
-        <v>5</v>
+        <v>367</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="14"/>
@@ -3813,7 +3908,7 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
@@ -3821,11 +3916,11 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -3835,19 +3930,19 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3857,15 +3952,15 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="14"/>
@@ -3877,11 +3972,11 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="14" t="s">
@@ -3897,15 +3992,15 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="14" t="s">
-        <v>5</v>
+        <v>368</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14"/>
@@ -3917,16 +4012,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -3937,16 +4030,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -3957,19 +4048,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="31" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="29" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -3989,7 +4080,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4004,7 +4095,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>58</v>
@@ -4015,13 +4106,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -4029,13 +4120,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -4043,13 +4134,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -4057,13 +4148,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -4093,42 +4184,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4155,33 +4246,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4213,100 +4304,100 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>167</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="7" t="s">
@@ -4319,26 +4410,26 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -4347,41 +4438,41 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -4391,20 +4482,20 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U4" s="23"/>
     </row>
@@ -4438,46 +4529,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4491,7 +4582,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4509,48 +4600,48 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27">
       <c r="A2" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>12</v>
@@ -4568,21 +4659,21 @@
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27">
       <c r="A3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>12</v>
@@ -4600,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4746,40 +4837,40 @@
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
@@ -4790,7 +4881,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>54</v>
@@ -4800,7 +4891,7 @@
         <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>62</v>
@@ -4821,10 +4912,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
@@ -4836,7 +4927,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -4883,7 +4974,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>66</v>
@@ -4914,13 +5005,13 @@
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>61</v>
@@ -4929,19 +5020,19 @@
         <v>69</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -4950,16 +5041,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4974,19 +5065,19 @@
     </row>
     <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5000,16 +5091,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5022,10 +5113,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
@@ -5033,7 +5124,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>21</v>
@@ -5054,22 +5145,22 @@
     </row>
     <row r="11" spans="1:14" ht="14.25" hidden="1">
       <c r="A11" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>209</v>
-      </c>
       <c r="F11" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" s="26">
         <v>123</v>
@@ -5090,32 +5181,32 @@
     </row>
     <row r="12" spans="1:14" ht="14.25">
       <c r="A12" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>268</v>
-      </c>
       <c r="D12" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -5124,32 +5215,32 @@
     </row>
     <row r="13" spans="1:14" ht="14.25">
       <c r="A13" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>267</v>
-      </c>
       <c r="C13" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -5158,32 +5249,32 @@
     </row>
     <row r="14" spans="1:14" ht="14.25">
       <c r="A14" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
@@ -5192,16 +5283,16 @@
     </row>
     <row r="15" spans="1:14" ht="14.25">
       <c r="A15" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -5219,10 +5310,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>23</v>
@@ -5253,10 +5344,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>23</v>
@@ -5268,7 +5359,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -5279,10 +5370,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>23</v>
@@ -5300,16 +5391,16 @@
     </row>
     <row r="19" spans="1:14" ht="14.25">
       <c r="A19" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5324,16 +5415,16 @@
     </row>
     <row r="20" spans="1:14" ht="14.25">
       <c r="A20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -5348,16 +5439,16 @@
     </row>
     <row r="21" spans="1:14" ht="14.25">
       <c r="A21" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
@@ -5372,16 +5463,16 @@
     </row>
     <row r="22" spans="1:14" ht="14.25">
       <c r="A22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
@@ -5396,26 +5487,26 @@
     </row>
     <row r="23" spans="1:14" ht="14.25">
       <c r="A23" s="34" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -5466,10 +5557,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5583,16 +5674,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
@@ -5614,24 +5705,24 @@
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -5640,10 +5731,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -5654,7 +5745,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>64</v>
@@ -5665,7 +5756,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>67</v>
@@ -5682,30 +5773,30 @@
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3">
         <v>123456</v>
@@ -5716,27 +5807,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>26</v>
@@ -5750,81 +5841,81 @@
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="25">
         <v>123</v>
@@ -5835,75 +5926,75 @@
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="33" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>24</v>
@@ -5912,27 +6003,27 @@
         <v>26</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="33" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6019,7 +6110,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -6039,7 +6130,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>54</v>
@@ -6100,7 +6191,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
@@ -6111,7 +6202,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6169,13 +6260,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -6189,13 +6280,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
